--- a/细节优化-190520不再更新/工作清单/智造组各工程师月度工作情况(2020-6郑振彪).xlsx
+++ b/细节优化-190520不再更新/工作清单/智造组各工程师月度工作情况(2020-6郑振彪).xlsx
@@ -8,19 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87CA2214-F4A1-45D2-A626-EA372D201643}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6A9070-AABB-4372-83C1-81EF286F589F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="15360" windowHeight="10875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="姓名" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
   <si>
     <t>智造组工程师工作月度情况</t>
   </si>
@@ -83,15 +93,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>工序产能-新要求：
-1、部分数据计算不对
-2、查看详细信息时，重新查询的逻辑bug更正
-3、计算总工时方式不对
-4、需要固定宽度
-5、样式重做</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>制作新的layout框架，分为三大块，菜单/页头页脚/内容，
 菜单有权限限制，
 菜单统一在 Scripts/menu-list/menuList.js进行配置</t>
@@ -110,6 +111,19 @@
   </si>
   <si>
     <t>离职员工工龄大改，改变查询方式，优化遗留bug，表格数据内容改变</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块段完成，模块段全部移入新框架，模块段全工序功能完成</t>
+  </si>
+  <si>
+    <t>工序产能-新要求：
+1、部分数据计算不对
+2、查看详细信息时，重新查询的逻辑bug更正
+3、计算总工时方式不对
+4、需要固定宽度
+5、样式重做
+6、增加周转时间</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -648,8 +662,8 @@
   </sheetPr>
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -766,21 +780,25 @@
       <c r="G5" s="4"/>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" ht="133.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="144.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C6" s="6">
         <v>43986</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="6">
+        <v>44018</v>
+      </c>
       <c r="E6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="F6" s="6">
+        <v>44018</v>
+      </c>
       <c r="G6" s="4"/>
       <c r="H6" s="7"/>
     </row>
@@ -789,7 +807,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="6">
         <v>43987</v>
@@ -877,7 +895,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="6">
         <v>43984</v>
@@ -894,12 +912,12 @@
       <c r="G11" s="4"/>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="6">
         <v>43997</v>
@@ -921,7 +939,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="6">
         <v>44000</v>
@@ -938,19 +956,25 @@
       <c r="G13" s="4"/>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="B14" s="5"/>
+      <c r="B14" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="C14" s="6">
-        <v>43994</v>
-      </c>
-      <c r="D14" s="6"/>
+        <v>44000</v>
+      </c>
+      <c r="D14" s="6">
+        <v>44006</v>
+      </c>
       <c r="E14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="F14" s="6">
+        <v>44006</v>
+      </c>
       <c r="G14" s="4"/>
       <c r="H14" s="7"/>
     </row>
